--- a/final_list.xlsx
+++ b/final_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,15 +551,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>spotify:track:5v8tUdBAn13V2yKlICWZ61</t>
+          <t>spotify:track:4q1q6kCMwDf5YUsOkTPBLE</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2022-12-03T12:46:03Z</t>
+          <t>2018-05-03T09:19:23Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -569,11 +569,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>android</t>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>15462</v>
+        <v>129479</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>31.187.2.30</t>
+          <t>31.187.0.161</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -592,17 +592,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Siren 042</t>
+          <t>Starve The Ego, Feed The Soul</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Lala Lala</t>
+          <t>The Glitch Mob</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Siren 042</t>
+          <t>Drink the Sea</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
@@ -610,25 +610,23 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>clickrow</t>
+          <t>fwdbtn</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>unexpected-exit-while-paused</t>
         </is>
       </c>
       <c r="S2" t="b">
-        <v>1</v>
-      </c>
-      <c r="T2" t="b">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="b">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1670072006</v>
+        <v>1525297458282</v>
       </c>
       <c r="W2" t="b">
         <v>0</v>
@@ -636,19 +634,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>spotify:track:7g5qe8VITjr13RIe8uM2p6</t>
+          <t>spotify:track:6gjbfsxdoNv7VZoAGRvIWf</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-12-08T11:30:29Z</t>
+          <t>2018-05-23T10:08:09Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -658,11 +656,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>android</t>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>212183</v>
+        <v>231701</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -671,7 +669,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>31.187.2.32</t>
+          <t>31.187.0.229</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -681,17 +679,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Your Best American Girl</t>
+          <t>Metaphysical - Daktyl Remix</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Mitski</t>
+          <t>Autograf</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Puberty 2</t>
+          <t>Metaphysical (Daktyl Remix)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -704,20 +702,18 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>trackdone</t>
+          <t>endplay</t>
         </is>
       </c>
       <c r="S3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="b">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1670498818</v>
+        <v>1527030213390</v>
       </c>
       <c r="W3" t="b">
         <v>0</v>
@@ -725,19 +721,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>spotify:track:5nVE45ithgyVocZp5XLAk6</t>
+          <t>spotify:track:0b9oOr2ZgvyQu88wzixux9</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2022-12-02T15:17:28Z</t>
+          <t>2018-05-07T11:20:20Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -747,11 +743,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>android</t>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>228459</v>
+        <v>225773</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -760,7 +756,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>31.187.2.230</t>
+          <t>37.228.209.8</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -770,17 +766,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>The Bug Collector</t>
+          <t>This Is America</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Haley Heynderickx</t>
+          <t>Childish Gambino</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>I Need to Start a Garden</t>
+          <t>This Is America</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -797,16 +793,14 @@
         </is>
       </c>
       <c r="S4" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" t="b">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="b">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1669994020</v>
+        <v>1525691795218</v>
       </c>
       <c r="W4" t="b">
         <v>0</v>
@@ -814,19 +808,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>spotify:track:7qtuP1pjkDOw0BNyBaCu6t</t>
+          <t>spotify:track:58l702tcyPKuXe9br3Grdl</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2022-12-02T17:50:51Z</t>
+          <t>2018-05-14T18:08:18Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -836,11 +830,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>android</t>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>236828</v>
+        <v>237826</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -849,7 +843,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>31.187.2.142</t>
+          <t>37.228.209.8</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -859,17 +853,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>The Hustle</t>
+          <t>Crystal Express</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Kiltro</t>
+          <t>Raury</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Creatures of Habit</t>
+          <t>All We Need</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -888,14 +882,12 @@
       <c r="S5" t="b">
         <v>0</v>
       </c>
-      <c r="T5" t="b">
-        <v>0</v>
-      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="b">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1670003214</v>
+        <v>1526321059669</v>
       </c>
       <c r="W5" t="b">
         <v>0</v>
@@ -903,19 +895,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>spotify:track:4P8BiGCyHfyy69B6Fpf3KU</t>
+          <t>spotify:track:3uYDO9dPLTVrgfwg7EYXSf</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2022-12-10T21:16:06Z</t>
+          <t>2018-05-06T16:21:20Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -925,11 +917,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>android</t>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>76202</v>
+        <v>147904</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -938,7 +930,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>31.187.2.15</t>
+          <t>37.228.209.8</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -948,17 +940,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>M for Magic</t>
+          <t>Lift Yourself</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Lomelda</t>
+          <t>Kanye West</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>M for Empathy</t>
+          <t>Lift Yourself</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
@@ -966,7 +958,7 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>trackdone</t>
+          <t>clickrow</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -975,16 +967,14 @@
         </is>
       </c>
       <c r="S6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="b">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1670707194</v>
+        <v>1525623533592</v>
       </c>
       <c r="W6" t="b">
         <v>0</v>
@@ -992,19 +982,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>spotify:track:1aTmszUhNPI2jRPfb02pQM</t>
+          <t>spotify:track:5vlYwTFnu2fQrq4sIdxtjZ</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2022-12-04T18:52:48Z</t>
+          <t>2018-05-22T11:26:31Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1014,11 +1004,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>android</t>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>689</v>
+        <v>262978</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1027,7 +1017,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>80.111.96.121</t>
+          <t>31.187.0.56</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1037,17 +1027,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Leaf House</t>
+          <t>Creep</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Animal Collective</t>
+          <t>Brooklyn Duo</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Sung Tongs</t>
+          <t>Brooklyn Sessions VI</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
@@ -1055,25 +1045,23 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>playbtn</t>
+          <t>trackdone</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>endplay</t>
+          <t>trackdone</t>
         </is>
       </c>
       <c r="S7" t="b">
         <v>0</v>
       </c>
-      <c r="T7" t="b">
-        <v>1</v>
-      </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="b">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1670179967</v>
+        <v>1526987513957</v>
       </c>
       <c r="W7" t="b">
         <v>0</v>
@@ -1081,19 +1069,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>spotify:track:0rw0Sj9i91oefFk3TLGNIE</t>
+          <t>spotify:track:5yoXOlam8hwe9oVNFzmxjq</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2022-12-09T12:33:48Z</t>
+          <t>2018-05-21T21:00:28Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1103,11 +1091,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>android</t>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>318600</v>
+        <v>103179</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1116,7 +1104,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>31.187.2.182</t>
+          <t>37.228.209.8</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1126,17 +1114,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>And Dance</t>
+          <t>Revival</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Salvatore Ganacci</t>
+          <t>Beats Antique</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Culturally Appropriate</t>
+          <t>Blind Threshold</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -1144,25 +1132,23 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>clickrow</t>
+          <t>fwdbtn</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>fwdbtn</t>
+          <t>endplay</t>
         </is>
       </c>
       <c r="S8" t="b">
         <v>0</v>
       </c>
-      <c r="T8" t="b">
-        <v>1</v>
-      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="b">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1670588157</v>
+        <v>1526934538350</v>
       </c>
       <c r="W8" t="b">
         <v>0</v>
@@ -1170,19 +1156,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>61</v>
+        <v>213</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>spotify:track:7MWIc6p9uOACLHGzzP9On7</t>
+          <t>spotify:track:2Ddw6YzFbBosbNm3MB1LaS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2022-12-05T12:23:48Z</t>
+          <t>2018-05-15T17:18:07Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1192,11 +1178,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>android</t>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>268906</v>
+        <v>173131</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1205,7 +1191,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>143.239.9.4</t>
+          <t>31.187.0.126</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1215,17 +1201,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Roman Holiday</t>
+          <t>No Care</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Fontaines D.C.</t>
+          <t>Daughter</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Skinty Fia</t>
+          <t>Not To Disappear</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
@@ -1233,7 +1219,7 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>trackdone</t>
+          <t>fwdbtn</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1242,16 +1228,14 @@
         </is>
       </c>
       <c r="S9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T9" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="b">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1670242758</v>
+        <v>1526404463381</v>
       </c>
       <c r="W9" t="b">
         <v>0</v>
@@ -1259,19 +1243,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>69</v>
+        <v>236</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>spotify:track:1rpB8t6WVWB3NmFc6BfJfn</t>
+          <t>spotify:track:3VAeTjREoKPY1exOXR4oBm</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2022-12-02T15:13:22Z</t>
+          <t>2018-05-02T10:11:56Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1281,11 +1265,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>android</t>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>91989</v>
+        <v>129599</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1294,7 +1278,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>31.187.2.230</t>
+          <t>31.187.0.208</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1304,17 +1288,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Bust</t>
+          <t>Go Fuck Yourself</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Lomelda</t>
+          <t>Two Feet</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>M for Empathy</t>
+          <t>First Steps</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1331,16 +1315,14 @@
         </is>
       </c>
       <c r="S10" t="b">
-        <v>1</v>
-      </c>
-      <c r="T10" t="b">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="b">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1669993910</v>
+        <v>1525255786381</v>
       </c>
       <c r="W10" t="b">
         <v>0</v>
@@ -1348,19 +1330,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>spotify:track:1BsH94NLjVe7cHJ8t5oWSP</t>
+          <t>spotify:track:2pSEhuPVhatz18cCLs5ZjY</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2022-12-05T12:44:54Z</t>
+          <t>2018-05-14T18:01:18Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1370,11 +1352,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>android</t>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>257669</v>
+        <v>279893</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1383,7 +1365,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>143.239.9.4</t>
+          <t>37.228.209.8</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1393,17 +1375,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Fears</t>
+          <t>Being No One, Going Nowhere</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>MTNS</t>
+          <t>STRFKR</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Salvage</t>
+          <t>Being No One, Going Nowhere</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1411,7 +1393,7 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>fwdbtn</t>
+          <t>clickrow</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1422,14 +1404,12 @@
       <c r="S11" t="b">
         <v>0</v>
       </c>
-      <c r="T11" t="b">
-        <v>0</v>
-      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="b">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1670243906</v>
+        <v>1526320599002</v>
       </c>
       <c r="W11" t="b">
         <v>0</v>
@@ -1437,19 +1417,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>84</v>
+        <v>279</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>spotify:track:5kSBstWdaP3tMlArgGM00C</t>
+          <t>spotify:track:6DB2KOEwHnjkgEnBt5SdeJ</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2022-12-05T15:23:27Z</t>
+          <t>2018-05-02T10:09:48Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1459,11 +1439,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>android</t>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>231039</v>
+        <v>257986</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1472,7 +1452,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>143.239.9.4</t>
+          <t>31.187.0.208</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1482,17 +1462,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Obvs</t>
+          <t>Mask Off (feat. Kendrick Lamar) - Remix</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Jamie xx</t>
+          <t>Future</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>In Colour</t>
+          <t>Mask Off (feat. Kendrick Lamar)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1500,7 +1480,7 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>fwdbtn</t>
+          <t>clickrow</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1511,14 +1491,12 @@
       <c r="S12" t="b">
         <v>0</v>
       </c>
-      <c r="T12" t="b">
-        <v>0</v>
-      </c>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="b">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1670253577</v>
+        <v>1525255531722</v>
       </c>
       <c r="W12" t="b">
         <v>0</v>
@@ -1526,19 +1504,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>91</v>
+        <v>299</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>spotify:track:1SN1gifVAKecU85lZggS8k</t>
+          <t>spotify:track:1Sqe8TmIyqSUJ3XOK2nQ0L</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2022-12-04T18:52:47Z</t>
+          <t>2018-05-22T11:31:24Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1548,11 +1526,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>android</t>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>721</v>
+        <v>295647</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1561,7 +1539,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>80.111.96.121</t>
+          <t>31.187.0.56</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1571,17 +1549,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>No Reptiles</t>
+          <t>Hide and Seek</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Everything Everything</t>
+          <t>Brooklyn Duo</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Get To Heaven (Deluxe)</t>
+          <t>Brooklyn Sessions VI</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -1589,25 +1567,23 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>clickrow</t>
+          <t>trackdone</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>endplay</t>
+          <t>trackdone</t>
         </is>
       </c>
       <c r="S13" t="b">
         <v>0</v>
       </c>
-      <c r="T13" t="b">
-        <v>1</v>
-      </c>
+      <c r="T13" t="inlineStr"/>
       <c r="U13" t="b">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1670179967</v>
+        <v>1526988389305</v>
       </c>
       <c r="W13" t="b">
         <v>0</v>
@@ -1615,19 +1591,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>98</v>
+        <v>317</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>spotify:track:0XgRWgcs0Pcr9PSIdFWD4N</t>
+          <t>spotify:track:4nLaeAathdcgAhhB0h5aWe</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2022-12-05T18:38:48Z</t>
+          <t>2018-05-02T10:05:31Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1637,11 +1613,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>android</t>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>93080</v>
+        <v>124352</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1650,7 +1626,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>80.111.96.121</t>
+          <t>31.187.0.208</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1660,17 +1636,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Clay Pigeons</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Michael Cera</t>
+          <t>Rhye</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>True That</t>
+          <t>Woman</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -1683,20 +1659,18 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>logout</t>
+          <t>unexpected-exit-while-paused</t>
         </is>
       </c>
       <c r="S14" t="b">
         <v>0</v>
       </c>
-      <c r="T14" t="b">
-        <v>0</v>
-      </c>
+      <c r="T14" t="inlineStr"/>
       <c r="U14" t="b">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1670264952</v>
+        <v>1525217367896</v>
       </c>
       <c r="W14" t="b">
         <v>0</v>
@@ -1704,19 +1678,19 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>spotify:track:7fmqJC1yi3tyys0l72F9Ya</t>
+          <t>spotify:track:5SFK7qsG5U34HbFxkmHW7e</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2022-12-05T19:20:23Z</t>
+          <t>2018-05-27T23:05:06Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1726,11 +1700,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>android</t>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>163292</v>
+        <v>204012</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1739,7 +1713,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>31.187.2.80</t>
+          <t>37.228.209.8</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1749,17 +1723,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>I Don't Wanna Be Funny Anymore</t>
+          <t>World Away</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Lucy Dacus</t>
+          <t>Kasbo</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>No Burden</t>
+          <t>World Away</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -1767,7 +1741,7 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>clickrow</t>
+          <t>trackdone</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1778,14 +1752,12 @@
       <c r="S15" t="b">
         <v>0</v>
       </c>
-      <c r="T15" t="b">
-        <v>0</v>
-      </c>
+      <c r="T15" t="inlineStr"/>
       <c r="U15" t="b">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1670267860</v>
+        <v>1527462102325</v>
       </c>
       <c r="W15" t="b">
         <v>0</v>
@@ -1793,19 +1765,19 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>112</v>
+        <v>350</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>spotify:track:1Il12wAhwd9jBwiU1yL500</t>
+          <t>spotify:track:3gZUflBBfgS3QiTSTg0hk0</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2022-12-03T14:45:28Z</t>
+          <t>2018-05-29T16:12:04Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1815,11 +1787,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>android</t>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2177</v>
+        <v>26052</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1828,7 +1800,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>31.187.2.189</t>
+          <t>31.187.0.239</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1838,17 +1810,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Dragon Bones</t>
+          <t>Movements</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Jamie T</t>
+          <t>Pham</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Trick</t>
+          <t>Movements - Single</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -1856,25 +1828,23 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>fwdbtn</t>
+          <t>clickrow</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>fwdbtn</t>
+          <t>endplay</t>
         </is>
       </c>
       <c r="S16" t="b">
         <v>1</v>
       </c>
-      <c r="T16" t="b">
-        <v>1</v>
-      </c>
+      <c r="T16" t="inlineStr"/>
       <c r="U16" t="b">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1670078726</v>
+        <v>1527610247446</v>
       </c>
       <c r="W16" t="b">
         <v>0</v>
@@ -1882,19 +1852,19 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>119</v>
+        <v>365</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>spotify:track:26WNKAgxNfg1MkhpBrx8UV</t>
+          <t>spotify:track:3mof6Z6vz6gonsuIEQXank</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2022-12-07T21:38:27Z</t>
+          <t>2018-05-28T19:26:49Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1904,11 +1874,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>android</t>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>245493</v>
+        <v>254896</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1917,7 +1887,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>31.187.2.31</t>
+          <t>37.228.209.8</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1927,17 +1897,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>FloriDada</t>
+          <t>Limelight (NGHTMRE Remix)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Animal Collective</t>
+          <t>Just A Gent</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Painting With</t>
+          <t>Limelight (NGHTMRE Remix)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -1956,14 +1926,12 @@
       <c r="S17" t="b">
         <v>0</v>
       </c>
-      <c r="T17" t="b">
-        <v>0</v>
-      </c>
+      <c r="T17" t="inlineStr"/>
       <c r="U17" t="b">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1670448861</v>
+        <v>1527535353791</v>
       </c>
       <c r="W17" t="b">
         <v>0</v>
@@ -1971,19 +1939,19 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>126</v>
+        <v>380</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>spotify:track:3uszDUcBsZ6M4hNMCFGgVH</t>
+          <t>spotify:track:2pYvd6cHcAIMAM6xMD6nok</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2022-12-12T10:32:25Z</t>
+          <t>2018-05-02T10:20:04Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1993,11 +1961,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>android</t>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1136</v>
+        <v>274693</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2006,7 +1974,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>143.239.9.1</t>
+          <t>31.187.0.208</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2016,17 +1984,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Sexy Narkoman</t>
+          <t>Break Apart</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Salvatore Ganacci</t>
+          <t>Bonobo</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Culturally Appropriate</t>
+          <t>Migration</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
@@ -2034,27 +2002,1678 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S18" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1525256129713</v>
+      </c>
+      <c r="W18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>spotify:track:69Naniu2KjKjaQOBUagE8U</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>9</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2018-05-02T10:31:58Z</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>214254</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>31.187.0.208</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Homemade Dynamite (Feat. Khalid, Post Malone &amp; SZA) - REMIX</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Lorde</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Homemade Dynamite (Feat. Khalid, Post Malone &amp; SZA) [REMIX]</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S19" t="b">
+        <v>0</v>
+      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="b">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1525256904940</v>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>spotify:track:7r5lF3RJeOo5CCDZStBrZf</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>8</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2018-05-04T10:38:57Z</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>31.187.0.162</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>4AM</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Vessels</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Dilate</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
           <t>fwdbtn</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>fwdbtn</t>
         </is>
       </c>
-      <c r="S18" t="b">
-        <v>0</v>
-      </c>
-      <c r="T18" t="b">
+      <c r="S20" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1525430335326</v>
+      </c>
+      <c r="W20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>spotify:track:0or0gNaKAXYYCsOrpvRzAu</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2018-05-02T10:34:48Z</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>171727</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>31.187.0.208</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Liability</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Lorde</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Melodrama</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S21" t="b">
+        <v>0</v>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="b">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1525257117220</v>
+      </c>
+      <c r="W21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>spotify:track:2RtNSM8cPCAOZ5bvQbW6y3</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>7</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2018-05-02T10:24:13Z</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>251266</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>31.187.0.208</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Oblivion</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Grimes</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Visions</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S22" t="b">
+        <v>0</v>
+      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="b">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1525256402384</v>
+      </c>
+      <c r="W22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>spotify:track:3ieFiBzm66bZK8EwB1YNQY</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>7</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2018-05-02T10:36:05Z</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>75749</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>31.187.0.208</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>In Cold Blood (feat. Pusha T) - Baauer Remix</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>alt-J</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>In Cold Blood</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>fwdbtn</t>
+        </is>
+      </c>
+      <c r="S23" t="b">
+        <v>0</v>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="b">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1525257286978</v>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>spotify:track:474I5bhxMtzky69EftO7lC</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>6</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2018-05-03T13:51:59Z</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>174576</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>31.187.0.36</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>into the trees</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>guardin</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>into the trees</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S24" t="b">
         <v>1</v>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1670841143</v>
-      </c>
-      <c r="W18" t="b">
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="b">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1525355344445</v>
+      </c>
+      <c r="W24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>spotify:track:59wlTaYOL5tDUgXnbBQ3my</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>6</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2018-05-02T20:10:35Z</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>234244</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>37.228.209.8</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>A Moment Apart</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>ODESZA</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>A Moment Apart</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>fwdbtn</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S25" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="b">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1525291602080</v>
+      </c>
+      <c r="W25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>spotify:track:2UciqgwVDwro0fev3MFbxJ</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>6</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2018-05-14T17:53:11Z</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>216726</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>37.228.209.8</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>J. Cole</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>KOD</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S26" t="b">
+        <v>0</v>
+      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="b">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1526320174381</v>
+      </c>
+      <c r="W26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>spotify:track:2UEt7KH4gdQ95kyE3sxX0s</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2018-05-03T15:11:45Z</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>248167</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>31.187.0.36</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Coffins</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>MisterWives</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Our Own House</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S27" t="b">
+        <v>1</v>
+      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="b">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1525360056698</v>
+      </c>
+      <c r="W27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>spotify:track:1AT4xjNarTswd0UZ5FlmKF</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2018-05-14T21:30:39Z</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>133921</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>37.228.209.8</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Motiv8</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>J. Cole</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>KOD</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>clickrow</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S28" t="b">
+        <v>0</v>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="b">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1526333306246</v>
+      </c>
+      <c r="W28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>spotify:track:3swc6WTsr7rl9DqQKQA55C</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2018-05-24T14:40:39Z</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>221440</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>31.187.0.250</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Psycho (feat. Ty Dolla $ign)</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Post Malone</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>beerbongs &amp; bentleys</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S29" t="b">
+        <v>0</v>
+      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="b">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1527172618559</v>
+      </c>
+      <c r="W29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>spotify:track:48p1tayyXF3eh8E3Y4pXmK</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>5</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2018-05-02T10:28:26Z</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>255320</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>31.187.0.208</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Genesis</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Grimes</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Visions</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S30" t="b">
+        <v>0</v>
+      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="b">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1525256651480</v>
+      </c>
+      <c r="W30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>spotify:track:5ReujumKRLUxgj2NRrYLqm</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>5</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2018-05-04T14:47:56Z</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>5045</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>31.187.0.152</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Musicbx</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Moody Good</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Moody Good</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>fwdbtn</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>fwdbtn</t>
+        </is>
+      </c>
+      <c r="S31" t="b">
+        <v>1</v>
+      </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="b">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1525445270599</v>
+      </c>
+      <c r="W31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>spotify:track:1TuopWDIuDi1553081zvuU</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2018-05-04T15:01:46Z</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>359328</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>31.187.0.152</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Resonance</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Odyssey</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>fwdbtn</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S32" t="b">
+        <v>1</v>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="b">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1525445503469</v>
+      </c>
+      <c r="W32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>spotify:track:7yotKA30dwTKNEGomV9ZsI</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>5</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2018-05-14T17:49:37Z</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>191436</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>37.228.209.8</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>KOD</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>J. Cole</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>KOD</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>clickrow</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S33" t="b">
+        <v>1</v>
+      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="b">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1526319965411</v>
+      </c>
+      <c r="W33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>spotify:track:418fYKL9zrcfvpI6WnIARi</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>5</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2018-05-08T17:18:19Z</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>192046</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>37.228.209.8</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Silk</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Giselle</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Silk</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S34" t="b">
+        <v>1</v>
+      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="b">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1525799706751</v>
+      </c>
+      <c r="W34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>spotify:track:4xKaAIRMff688GtmmDrvhh</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>5</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2018-05-04T10:38:57Z</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>31.187.0.162</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Swim High</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>RIVKA</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Faded</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>fwdbtn</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>fwdbtn</t>
+        </is>
+      </c>
+      <c r="S35" t="b">
+        <v>0</v>
+      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="b">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1525430335063</v>
+      </c>
+      <c r="W35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>spotify:track:5JCi3pyggvk4B0yd0BK3ow</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>5</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2018-05-02T11:59:58Z</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>258386</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>31.187.0.204</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Stay High - Habits Remix</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Tove Lo</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Queen Of The Clouds</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S36" t="b">
+        <v>1</v>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="b">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1525262141083</v>
+      </c>
+      <c r="W36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>spotify:track:2vY6l6BYScc5BfFDstUeWY</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>5</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2018-05-14T13:19:03Z</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>29148</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>31.187.2.159</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Stand Up</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Flobots</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Fight With Tools</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>fwdbtn</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>endplay</t>
+        </is>
+      </c>
+      <c r="S37" t="b">
+        <v>1</v>
+      </c>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="b">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1526303911858</v>
+      </c>
+      <c r="W37" t="b">
         <v>0</v>
       </c>
     </row>

--- a/final_list.xlsx
+++ b/final_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,15 +551,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>spotify:track:4q1q6kCMwDf5YUsOkTPBLE</t>
+          <t>spotify:track:6Ua9Ylv2V1BXtjAaa3MPDs</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2018-05-03T09:19:23Z</t>
+          <t>2015-06-11T20:34:15Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -569,11 +569,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>129479</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>31.187.0.161</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -592,17 +592,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Starve The Ego, Feed The Soul</t>
+          <t>Cool</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>The Glitch Mob</t>
+          <t>Alesso</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Drink the Sea</t>
+          <t>Cool</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
@@ -610,23 +610,25 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>fwdbtn</t>
+          <t>clickrow</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>unexpected-exit-while-paused</t>
+          <t>clickrow</t>
         </is>
       </c>
       <c r="S2" t="b">
         <v>0</v>
       </c>
-      <c r="T2" t="inlineStr"/>
+      <c r="T2" t="b">
+        <v>1</v>
+      </c>
       <c r="U2" t="b">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1525297458282</v>
+        <v>0</v>
       </c>
       <c r="W2" t="b">
         <v>0</v>
@@ -634,19 +636,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>spotify:track:6gjbfsxdoNv7VZoAGRvIWf</t>
+          <t>spotify:track:04Hd3SxnL6b41B4ClPtmtq</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2018-05-23T10:08:09Z</t>
+          <t>2015-06-10T23:00:49Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -656,11 +658,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>231701</v>
+        <v>176561</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -669,7 +671,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>31.187.0.229</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -679,17 +681,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Metaphysical - Daktyl Remix</t>
+          <t>Lean On (feat. MØ &amp; DJ Snake)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Autograf</t>
+          <t>Major Lazer</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Metaphysical (Daktyl Remix)</t>
+          <t>Peace Is The Mission</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -697,23 +699,25 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>fwdbtn</t>
+          <t>trackdone</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>endplay</t>
+          <t>trackdone</t>
         </is>
       </c>
       <c r="S3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
       <c r="U3" t="b">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1527030213390</v>
+        <v>0</v>
       </c>
       <c r="W3" t="b">
         <v>0</v>
@@ -721,19 +725,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>spotify:track:0b9oOr2ZgvyQu88wzixux9</t>
+          <t>spotify:track:06Hdbxh6NCy6TIhjdXTchB</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2018-05-07T11:20:20Z</t>
+          <t>2015-06-02T21:32:52Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -743,11 +747,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>225773</v>
+        <v>209208</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -756,7 +760,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>37.228.209.8</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -766,17 +770,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>This Is America</t>
+          <t>Headlights (feat. Ilsey)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Childish Gambino</t>
+          <t>Robin Schulz</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>This Is America</t>
+          <t>Headlights (feat. Ilsey)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -784,7 +788,7 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>fwdbtn</t>
+          <t>clickrow</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -795,12 +799,14 @@
       <c r="S4" t="b">
         <v>0</v>
       </c>
-      <c r="T4" t="inlineStr"/>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
       <c r="U4" t="b">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1525691795218</v>
+        <v>0</v>
       </c>
       <c r="W4" t="b">
         <v>0</v>
@@ -808,19 +814,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>spotify:track:58l702tcyPKuXe9br3Grdl</t>
+          <t>spotify:track:7wqSzGeodspE3V6RBD5W8L</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2018-05-14T18:08:18Z</t>
+          <t>2015-06-06T23:44:00Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -830,11 +836,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>237826</v>
+        <v>2368</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -843,7 +849,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>37.228.209.8</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -853,17 +859,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Crystal Express</t>
+          <t>See You Again (feat. Charlie Puth)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Raury</t>
+          <t>Wiz Khalifa</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>All We Need</t>
+          <t>See You Again (feat. Charlie Puth)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -871,23 +877,25 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>trackdone</t>
+          <t>clickrow</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>trackdone</t>
+          <t>clickrow</t>
         </is>
       </c>
       <c r="S5" t="b">
         <v>0</v>
       </c>
-      <c r="T5" t="inlineStr"/>
+      <c r="T5" t="b">
+        <v>1</v>
+      </c>
       <c r="U5" t="b">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1526321059669</v>
+        <v>0</v>
       </c>
       <c r="W5" t="b">
         <v>0</v>
@@ -895,19 +903,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>spotify:track:3uYDO9dPLTVrgfwg7EYXSf</t>
+          <t>spotify:track:3twQx3psUMJKj4wna5d1zU</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2018-05-06T16:21:20Z</t>
+          <t>2015-06-06T23:47:42Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -917,11 +925,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>147904</v>
+        <v>222128</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -930,7 +938,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>37.228.209.8</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -940,17 +948,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Lift Yourself</t>
+          <t>Trap Queen</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Kanye West</t>
+          <t>Fetty Wap</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Lift Yourself</t>
+          <t>Trap Queen</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
@@ -967,14 +975,16 @@
         </is>
       </c>
       <c r="S6" t="b">
-        <v>1</v>
-      </c>
-      <c r="T6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
       <c r="U6" t="b">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1525623533592</v>
+        <v>0</v>
       </c>
       <c r="W6" t="b">
         <v>0</v>
@@ -982,19 +992,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>spotify:track:5vlYwTFnu2fQrq4sIdxtjZ</t>
+          <t>spotify:track:4YhL5abCi0PDKtOCvF48ss</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2018-05-22T11:26:31Z</t>
+          <t>2015-07-23T23:20:25Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1004,20 +1014,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>262978</v>
+        <v>1029</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>31.187.0.56</t>
+          <t>88.10.241.230</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1027,17 +1037,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Creep</t>
+          <t>Weightless</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Brooklyn Duo</t>
+          <t>Vaski</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Brooklyn Sessions VI</t>
+          <t>Weightless - EP</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
@@ -1045,23 +1055,25 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>trackdone</t>
+          <t>clickrow</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>trackdone</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="S7" t="b">
         <v>0</v>
       </c>
-      <c r="T7" t="inlineStr"/>
+      <c r="T7" t="b">
+        <v>1</v>
+      </c>
       <c r="U7" t="b">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1526987513957</v>
+        <v>0</v>
       </c>
       <c r="W7" t="b">
         <v>0</v>
@@ -1069,19 +1081,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>spotify:track:5yoXOlam8hwe9oVNFzmxjq</t>
+          <t>spotify:track:6z77EoxmVjvpXJMaZHJqdP</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2018-05-21T21:00:28Z</t>
+          <t>2015-06-02T21:50:18Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1091,11 +1103,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>103179</v>
+        <v>77786</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1104,7 +1116,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>37.228.209.8</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1114,17 +1126,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Revival</t>
+          <t>Clair De Lune</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Beats Antique</t>
+          <t>Flight Facilities</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Blind Threshold</t>
+          <t>Down To Earth</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -1132,23 +1144,25 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
           <t>fwdbtn</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>endplay</t>
-        </is>
-      </c>
       <c r="S8" t="b">
         <v>0</v>
       </c>
-      <c r="T8" t="inlineStr"/>
+      <c r="T8" t="b">
+        <v>1</v>
+      </c>
       <c r="U8" t="b">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1526934538350</v>
+        <v>0</v>
       </c>
       <c r="W8" t="b">
         <v>0</v>
@@ -1156,19 +1170,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>213</v>
+        <v>103</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>spotify:track:2Ddw6YzFbBosbNm3MB1LaS</t>
+          <t>spotify:track:66hayvUbTotekKU3H4ta1f</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2018-05-15T17:18:07Z</t>
+          <t>2015-06-10T23:09:03Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1178,11 +1192,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>173131</v>
+        <v>250285</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1191,7 +1205,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>31.187.0.126</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1201,17 +1215,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>No Care</t>
+          <t>Where Are Ü Now (with Justin Bieber)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Daughter</t>
+          <t>Jack Ü</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Not To Disappear</t>
+          <t>Skrillex and Diplo present Jack Ü</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
@@ -1219,7 +1233,7 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>fwdbtn</t>
+          <t>trackdone</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1228,14 +1242,16 @@
         </is>
       </c>
       <c r="S9" t="b">
-        <v>1</v>
-      </c>
-      <c r="T9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
       <c r="U9" t="b">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1526404463381</v>
+        <v>0</v>
       </c>
       <c r="W9" t="b">
         <v>0</v>
@@ -1243,19 +1259,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>spotify:track:3VAeTjREoKPY1exOXR4oBm</t>
+          <t>spotify:track:4kPJcxkYCGoXhePVxiTy3V</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2018-05-02T10:11:56Z</t>
+          <t>2015-06-02T21:35:53Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1265,11 +1281,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>129599</v>
+        <v>179960</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1278,7 +1294,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>31.187.0.208</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1288,17 +1304,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Go Fuck Yourself</t>
+          <t>Sun Goes Down (feat. Jasmine Thompson) - Radio Mix</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Two Feet</t>
+          <t>Robin Schulz</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>First Steps</t>
+          <t>Sun Goes Down (feat. Jasmine Thompson)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1317,12 +1333,14 @@
       <c r="S10" t="b">
         <v>0</v>
       </c>
-      <c r="T10" t="inlineStr"/>
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
       <c r="U10" t="b">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1525255786381</v>
+        <v>0</v>
       </c>
       <c r="W10" t="b">
         <v>0</v>
@@ -1330,19 +1348,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>258</v>
+        <v>124</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>spotify:track:2pSEhuPVhatz18cCLs5ZjY</t>
+          <t>spotify:track:2sNvitW3TxiTeC9xT9f2ZZ</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2018-05-14T18:01:18Z</t>
+          <t>2015-06-06T22:08:24Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1352,11 +1370,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>279893</v>
+        <v>273684</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1365,7 +1383,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>37.228.209.8</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1375,17 +1393,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Being No One, Going Nowhere</t>
+          <t>Firestone</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>STRFKR</t>
+          <t>Kygo</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Being No One, Going Nowhere</t>
+          <t>Firestone</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1393,7 +1411,7 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>clickrow</t>
+          <t>trackdone</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1404,12 +1422,14 @@
       <c r="S11" t="b">
         <v>0</v>
       </c>
-      <c r="T11" t="inlineStr"/>
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
       <c r="U11" t="b">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1526320599002</v>
+        <v>0</v>
       </c>
       <c r="W11" t="b">
         <v>0</v>
@@ -1417,19 +1437,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>279</v>
+        <v>134</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>spotify:track:6DB2KOEwHnjkgEnBt5SdeJ</t>
+          <t>spotify:track:4qABfS1RaGVXdBhj2BQyhO</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2018-05-02T10:09:48Z</t>
+          <t>2015-06-12T23:21:37Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1439,11 +1459,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>257986</v>
+        <v>227073</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1452,7 +1472,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>31.187.0.208</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1462,17 +1482,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Mask Off (feat. Kendrick Lamar) - Remix</t>
+          <t>Runaway (U &amp; I)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Future</t>
+          <t>Galantis</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Mask Off (feat. Kendrick Lamar)</t>
+          <t>Runaway (U &amp; I)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1480,7 +1500,7 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>clickrow</t>
+          <t>trackdone</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1491,12 +1511,14 @@
       <c r="S12" t="b">
         <v>0</v>
       </c>
-      <c r="T12" t="inlineStr"/>
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
       <c r="U12" t="b">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1525255531722</v>
+        <v>0</v>
       </c>
       <c r="W12" t="b">
         <v>0</v>
@@ -1504,19 +1526,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>299</v>
+        <v>144</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>spotify:track:1Sqe8TmIyqSUJ3XOK2nQ0L</t>
+          <t>spotify:track:2kKaIe9WKOD01cdIrEnEOk</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2018-05-22T11:31:24Z</t>
+          <t>2015-06-02T23:43:38Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1526,11 +1548,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>295647</v>
+        <v>165154</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1539,7 +1561,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>31.187.0.56</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1549,17 +1571,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Hide and Seek</t>
+          <t>Hello</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Brooklyn Duo</t>
+          <t>Martin Solveig</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Brooklyn Sessions VI</t>
+          <t>Hello</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -1578,12 +1600,14 @@
       <c r="S13" t="b">
         <v>0</v>
       </c>
-      <c r="T13" t="inlineStr"/>
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
       <c r="U13" t="b">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1526988389305</v>
+        <v>0</v>
       </c>
       <c r="W13" t="b">
         <v>0</v>
@@ -1591,19 +1615,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>317</v>
+        <v>154</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>spotify:track:4nLaeAathdcgAhhB0h5aWe</t>
+          <t>spotify:track:3W2ZcrRsInZbjWylOi6KhZ</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2018-05-02T10:05:31Z</t>
+          <t>2015-06-02T23:23:00Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1613,11 +1637,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>124352</v>
+        <v>282812</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1626,7 +1650,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>31.187.0.208</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1636,17 +1660,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>You &amp; Me - Flume Remix</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Rhye</t>
+          <t>Disclosure</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>Settle</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -1659,18 +1683,20 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>unexpected-exit-while-paused</t>
+          <t>trackdone</t>
         </is>
       </c>
       <c r="S14" t="b">
         <v>0</v>
       </c>
-      <c r="T14" t="inlineStr"/>
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
       <c r="U14" t="b">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1525217367896</v>
+        <v>0</v>
       </c>
       <c r="W14" t="b">
         <v>0</v>
@@ -1678,19 +1704,19 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>334</v>
+        <v>164</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>spotify:track:5SFK7qsG5U34HbFxkmHW7e</t>
+          <t>spotify:track:7DXFWCDH6zHDTsWxyldfRF</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2018-05-27T23:05:06Z</t>
+          <t>2015-07-26T00:16:28Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1700,20 +1726,20 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>204012</v>
+        <v>126248</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>37.228.209.8</t>
+          <t>88.10.241.230</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1723,17 +1749,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>World Away</t>
+          <t>Sunset Neon</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Kasbo</t>
+          <t>Blue Stahli</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>World Away</t>
+          <t>Antisleep Vol. 04 (Ch. 01) - EP</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -1741,7 +1767,7 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>trackdone</t>
+          <t>fwdbtn</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1752,12 +1778,14 @@
       <c r="S15" t="b">
         <v>0</v>
       </c>
-      <c r="T15" t="inlineStr"/>
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
       <c r="U15" t="b">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1527462102325</v>
+        <v>0</v>
       </c>
       <c r="W15" t="b">
         <v>0</v>
@@ -1765,19 +1793,19 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>350</v>
+        <v>173</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>spotify:track:3gZUflBBfgS3QiTSTg0hk0</t>
+          <t>spotify:track:6zpCJDhdpHPZCcFCJZDqX5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2018-05-29T16:12:04Z</t>
+          <t>2015-06-02T21:50:28Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1787,11 +1815,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>26052</v>
+        <v>10634</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1800,7 +1828,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>31.187.0.239</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1810,17 +1838,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Movements</t>
+          <t>High You Are</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Pham</t>
+          <t>What So Not</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Movements - Single</t>
+          <t>High You Are</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -1828,23 +1856,25 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
+          <t>fwdbtn</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
           <t>clickrow</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>endplay</t>
-        </is>
-      </c>
       <c r="S16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T16" t="b">
         <v>1</v>
       </c>
-      <c r="T16" t="inlineStr"/>
       <c r="U16" t="b">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1527610247446</v>
+        <v>0</v>
       </c>
       <c r="W16" t="b">
         <v>0</v>
@@ -1852,19 +1882,19 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>365</v>
+        <v>182</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>spotify:track:3mof6Z6vz6gonsuIEQXank</t>
+          <t>spotify:track:6eNQBntWe7hh6N0h62tRcg</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2018-05-28T19:26:49Z</t>
+          <t>2015-06-02T22:07:33Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1874,11 +1904,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>254896</v>
+        <v>283705</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1887,7 +1917,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>37.228.209.8</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1897,17 +1927,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Limelight (NGHTMRE Remix)</t>
+          <t>When A Fire Starts To Burn</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Just A Gent</t>
+          <t>Disclosure</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Limelight (NGHTMRE Remix)</t>
+          <t>Settle</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -1926,12 +1956,14 @@
       <c r="S17" t="b">
         <v>0</v>
       </c>
-      <c r="T17" t="inlineStr"/>
+      <c r="T17" t="b">
+        <v>0</v>
+      </c>
       <c r="U17" t="b">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1527535353791</v>
+        <v>0</v>
       </c>
       <c r="W17" t="b">
         <v>0</v>
@@ -1939,19 +1971,19 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>380</v>
+        <v>191</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>spotify:track:2pYvd6cHcAIMAM6xMD6nok</t>
+          <t>spotify:track:4LUu3bMpuxHjwPLj84rNSx</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2018-05-02T10:20:04Z</t>
+          <t>2015-07-26T17:08:59Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1961,20 +1993,20 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Android OS 4.4.4 API 19 (samsung, GT-I9300)</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>274693</v>
+        <v>1531</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>31.187.0.208</t>
+          <t>88.10.241.230</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1984,17 +2016,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Break Apart</t>
+          <t>Mirror Maru</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Bonobo</t>
+          <t>Cashmere Cat</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Migration</t>
+          <t>Mirror Maru EP</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
@@ -2002,23 +2034,25 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>trackdone</t>
+          <t>appload</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>trackdone</t>
+          <t>endplay</t>
         </is>
       </c>
       <c r="S18" t="b">
-        <v>0</v>
-      </c>
-      <c r="T18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="T18" t="b">
+        <v>1</v>
+      </c>
       <c r="U18" t="b">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>1525256129713</v>
+        <v>0</v>
       </c>
       <c r="W18" t="b">
         <v>0</v>
@@ -2026,19 +2060,19 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>393</v>
+        <v>199</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>spotify:track:69Naniu2KjKjaQOBUagE8U</t>
+          <t>spotify:track:1XT5kxg6Tk0ukCO2vBQN4v</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2018-05-02T10:31:58Z</t>
+          <t>2015-06-02T21:40:07Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2048,11 +2082,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>214254</v>
+        <v>253800</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2061,7 +2095,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>31.187.0.208</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2071,17 +2105,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Homemade Dynamite (Feat. Khalid, Post Malone &amp; SZA) - REMIX</t>
+          <t>Making Plans For Nigel</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Lorde</t>
+          <t>XTC</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Homemade Dynamite (Feat. Khalid, Post Malone &amp; SZA) [REMIX]</t>
+          <t>Drums And Wires</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -2100,12 +2134,14 @@
       <c r="S19" t="b">
         <v>0</v>
       </c>
-      <c r="T19" t="inlineStr"/>
+      <c r="T19" t="b">
+        <v>0</v>
+      </c>
       <c r="U19" t="b">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1525256904940</v>
+        <v>0</v>
       </c>
       <c r="W19" t="b">
         <v>0</v>
@@ -2113,11 +2149,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>402</v>
+        <v>207</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>spotify:track:7r5lF3RJeOo5CCDZStBrZf</t>
+          <t>spotify:track:4AHgQqyCVJsOwftyUyBYk5</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2125,7 +2161,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2018-05-04T10:38:57Z</t>
+          <t>2015-06-03T16:25:04Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2135,11 +2171,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2148,7 +2184,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>31.187.0.162</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2158,17 +2194,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>4AM</t>
+          <t>Million Voices - Radio Edit</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Vessels</t>
+          <t>Otto Knows</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Dilate</t>
+          <t>Floorfillers Club Anthems</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -2187,12 +2223,14 @@
       <c r="S20" t="b">
         <v>0</v>
       </c>
-      <c r="T20" t="inlineStr"/>
+      <c r="T20" t="b">
+        <v>1</v>
+      </c>
       <c r="U20" t="b">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1525430335326</v>
+        <v>0</v>
       </c>
       <c r="W20" t="b">
         <v>0</v>
@@ -2200,11 +2238,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>410</v>
+        <v>215</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>spotify:track:0or0gNaKAXYYCsOrpvRzAu</t>
+          <t>spotify:track:0ysmhSqZrkiRkRH4mH8rDn</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2212,7 +2250,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2018-05-02T10:34:48Z</t>
+          <t>2015-06-10T23:04:52Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2222,11 +2260,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>171727</v>
+        <v>242519</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2235,7 +2273,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>31.187.0.208</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2245,17 +2283,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Liability</t>
+          <t>The Hills</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Lorde</t>
+          <t>The Weeknd</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Melodrama</t>
+          <t>The Hills</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
@@ -2274,12 +2312,14 @@
       <c r="S21" t="b">
         <v>0</v>
       </c>
-      <c r="T21" t="inlineStr"/>
+      <c r="T21" t="b">
+        <v>0</v>
+      </c>
       <c r="U21" t="b">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1525257117220</v>
+        <v>0</v>
       </c>
       <c r="W21" t="b">
         <v>0</v>
@@ -2287,19 +2327,19 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>418</v>
+        <v>223</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>spotify:track:2RtNSM8cPCAOZ5bvQbW6y3</t>
+          <t>spotify:track:0I3q5fE6wg7LIfHGngUTnV</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2018-05-02T10:24:13Z</t>
+          <t>2015-06-03T20:03:42Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2309,11 +2349,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>251266</v>
+        <v>270233</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2322,7 +2362,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>31.187.0.208</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2332,17 +2372,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Oblivion</t>
+          <t>Ms. Jackson</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Grimes</t>
+          <t>Outkast</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Visions</t>
+          <t>Stankonia</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -2361,12 +2401,14 @@
       <c r="S22" t="b">
         <v>0</v>
       </c>
-      <c r="T22" t="inlineStr"/>
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
       <c r="U22" t="b">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1525256402384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="b">
         <v>0</v>
@@ -2374,19 +2416,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>425</v>
+        <v>231</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>spotify:track:3ieFiBzm66bZK8EwB1YNQY</t>
+          <t>spotify:track:6PtXobrqImYfnpIxNsJApa</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2018-05-02T10:36:05Z</t>
+          <t>2015-06-02T23:40:52Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2396,11 +2438,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>75749</v>
+        <v>170625</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2409,7 +2451,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>31.187.0.208</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2419,17 +2461,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>In Cold Blood (feat. Pusha T) - Baauer Remix</t>
+          <t>Bad (feat. Vassy) - Radio Edit</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>alt-J</t>
+          <t>David Guetta</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>In Cold Blood</t>
+          <t>Bad (feat. Vassy)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
@@ -2442,18 +2484,20 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>fwdbtn</t>
+          <t>trackdone</t>
         </is>
       </c>
       <c r="S23" t="b">
         <v>0</v>
       </c>
-      <c r="T23" t="inlineStr"/>
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
       <c r="U23" t="b">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1525257286978</v>
+        <v>0</v>
       </c>
       <c r="W23" t="b">
         <v>0</v>
@@ -2461,19 +2505,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>432</v>
+        <v>239</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>spotify:track:474I5bhxMtzky69EftO7lC</t>
+          <t>spotify:track:6YUTL4dYpB9xZO5qExPf05</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2018-05-03T13:51:59Z</t>
+          <t>2015-06-02T23:38:01Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2483,11 +2527,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>174576</v>
+        <v>222533</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2496,7 +2540,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>31.187.0.36</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2506,17 +2550,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>into the trees</t>
+          <t>Summer</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>guardin</t>
+          <t>Calvin Harris</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>into the trees</t>
+          <t>Motion</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
@@ -2533,14 +2577,16 @@
         </is>
       </c>
       <c r="S24" t="b">
-        <v>1</v>
-      </c>
-      <c r="T24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
       <c r="U24" t="b">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>1525355344445</v>
+        <v>0</v>
       </c>
       <c r="W24" t="b">
         <v>0</v>
@@ -2548,19 +2594,19 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>438</v>
+        <v>247</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>spotify:track:59wlTaYOL5tDUgXnbBQ3my</t>
+          <t>spotify:track:0VffaI2jwQknRrxpECYHsF</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2018-05-02T20:10:35Z</t>
+          <t>2015-06-03T00:15:18Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2570,11 +2616,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>234244</v>
+        <v>100542</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2583,7 +2629,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>37.228.209.8</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2593,17 +2639,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>A Moment Apart</t>
+          <t>Greyhound</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>ODESZA</t>
+          <t>Swedish House Mafia</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>A Moment Apart</t>
+          <t>Until Now</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
@@ -2611,23 +2657,25 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>fwdbtn</t>
+          <t>trackdone</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>trackdone</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="S25" t="b">
+        <v>0</v>
+      </c>
+      <c r="T25" t="b">
         <v>1</v>
       </c>
-      <c r="T25" t="inlineStr"/>
       <c r="U25" t="b">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1525291602080</v>
+        <v>0</v>
       </c>
       <c r="W25" t="b">
         <v>0</v>
@@ -2635,19 +2683,19 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>444</v>
+        <v>254</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>spotify:track:2UciqgwVDwro0fev3MFbxJ</t>
+          <t>spotify:track:2TkiK1Hbiaww3ZjOVX1qqp</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2018-05-14T17:53:11Z</t>
+          <t>2015-06-02T21:58:45Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2657,11 +2705,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>216726</v>
+        <v>258933</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2670,7 +2718,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>37.228.209.8</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2680,17 +2728,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>Stay High - Habits Remix</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>J. Cole</t>
+          <t>Tove Lo</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>KOD</t>
+          <t>Queen Of The Clouds</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
@@ -2709,12 +2757,14 @@
       <c r="S26" t="b">
         <v>0</v>
       </c>
-      <c r="T26" t="inlineStr"/>
+      <c r="T26" t="b">
+        <v>0</v>
+      </c>
       <c r="U26" t="b">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1526320174381</v>
+        <v>0</v>
       </c>
       <c r="W26" t="b">
         <v>0</v>
@@ -2722,19 +2772,19 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>450</v>
+        <v>261</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>spotify:track:2UEt7KH4gdQ95kyE3sxX0s</t>
+          <t>spotify:track:4kbj5MwxO1bq9wjT5g9HaA</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2018-05-03T15:11:45Z</t>
+          <t>2015-06-10T23:26:24Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2744,11 +2794,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>248167</v>
+        <v>199080</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2757,7 +2807,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>31.187.0.36</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2767,17 +2817,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Coffins</t>
+          <t>Shut Up and Dance</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>MisterWives</t>
+          <t>WALK THE MOON</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Our Own House</t>
+          <t>TALKING IS HARD</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -2794,14 +2844,16 @@
         </is>
       </c>
       <c r="S27" t="b">
-        <v>1</v>
-      </c>
-      <c r="T27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="T27" t="b">
+        <v>0</v>
+      </c>
       <c r="U27" t="b">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>1525360056698</v>
+        <v>0</v>
       </c>
       <c r="W27" t="b">
         <v>0</v>
@@ -2809,19 +2861,19 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>455</v>
+        <v>268</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>spotify:track:1AT4xjNarTswd0UZ5FlmKF</t>
+          <t>spotify:track:1FCQEg7wOK9IIBuxx63krr</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2018-05-14T21:30:39Z</t>
+          <t>2015-06-03T16:29:10Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2831,11 +2883,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>133921</v>
+        <v>246213</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2844,7 +2896,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>37.228.209.8</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2854,17 +2906,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Motiv8</t>
+          <t>And We Danced (feat. Ziggy Stardust)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>J. Cole</t>
+          <t>Macklemore</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>KOD</t>
+          <t>The Unplanned Mixtape</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -2872,7 +2924,7 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>clickrow</t>
+          <t>fwdbtn</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2883,12 +2935,14 @@
       <c r="S28" t="b">
         <v>0</v>
       </c>
-      <c r="T28" t="inlineStr"/>
+      <c r="T28" t="b">
+        <v>0</v>
+      </c>
       <c r="U28" t="b">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1526333306246</v>
+        <v>0</v>
       </c>
       <c r="W28" t="b">
         <v>0</v>
@@ -2896,19 +2950,19 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>460</v>
+        <v>275</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>spotify:track:3swc6WTsr7rl9DqQKQA55C</t>
+          <t>spotify:track:121so7t3AeX6nLMvxy9ZP9</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2018-05-24T14:40:39Z</t>
+          <t>2015-06-03T16:42:59Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2918,11 +2972,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>221440</v>
+        <v>268866</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2931,7 +2985,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>31.187.0.250</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2941,17 +2995,17 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Psycho (feat. Ty Dolla $ign)</t>
+          <t>Hide and Seek</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Post Malone</t>
+          <t>Imogen Heap</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>beerbongs &amp; bentleys</t>
+          <t>Speak For Yourself</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -2970,12 +3024,14 @@
       <c r="S29" t="b">
         <v>0</v>
       </c>
-      <c r="T29" t="inlineStr"/>
+      <c r="T29" t="b">
+        <v>0</v>
+      </c>
       <c r="U29" t="b">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1527172618559</v>
+        <v>0</v>
       </c>
       <c r="W29" t="b">
         <v>0</v>
@@ -2983,19 +3039,19 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>465</v>
+        <v>282</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>spotify:track:48p1tayyXF3eh8E3Y4pXmK</t>
+          <t>spotify:track:66GxATzfp7F2AaQNppNQnz</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2018-05-02T10:28:26Z</t>
+          <t>2015-07-27T22:53:38Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3005,20 +3061,20 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Android OS 4.4.4 API 19 (samsung, GT-I9300)</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>255320</v>
+        <v>198693</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>31.187.0.208</t>
+          <t>88.21.205.119</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3028,17 +3084,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Genesis</t>
+          <t>Pola - The Geek x VRV Remix</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Grimes</t>
+          <t>Jabberwocky</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Visions</t>
+          <t>Pola</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -3046,7 +3102,7 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>trackdone</t>
+          <t>fwdbtn</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -3055,14 +3111,16 @@
         </is>
       </c>
       <c r="S30" t="b">
-        <v>0</v>
-      </c>
-      <c r="T30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="T30" t="b">
+        <v>0</v>
+      </c>
       <c r="U30" t="b">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>1525256651480</v>
+        <v>0</v>
       </c>
       <c r="W30" t="b">
         <v>0</v>
@@ -3070,19 +3128,19 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>470</v>
+        <v>289</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>spotify:track:5ReujumKRLUxgj2NRrYLqm</t>
+          <t>spotify:track:1nXRacxi1isUvleBB6Jgx7</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2018-05-04T14:47:56Z</t>
+          <t>2015-06-10T22:30:10Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3092,11 +3150,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5045</v>
+        <v>67673</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -3105,7 +3163,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>31.187.0.152</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3115,17 +3173,17 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Musicbx</t>
+          <t>SeeSaw</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Moody Good</t>
+          <t>Jamie xx</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Moody Good</t>
+          <t>In Colour</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
@@ -3133,23 +3191,25 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>fwdbtn</t>
+          <t>clickrow</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>fwdbtn</t>
+          <t>endplay</t>
         </is>
       </c>
       <c r="S31" t="b">
+        <v>0</v>
+      </c>
+      <c r="T31" t="b">
         <v>1</v>
       </c>
-      <c r="T31" t="inlineStr"/>
       <c r="U31" t="b">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1525445270599</v>
+        <v>0</v>
       </c>
       <c r="W31" t="b">
         <v>0</v>
@@ -3157,19 +3217,19 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>475</v>
+        <v>296</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>spotify:track:1TuopWDIuDi1553081zvuU</t>
+          <t>spotify:track:7cgu4JBW3hq1GwTM1ilkKQ</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2018-05-04T15:01:46Z</t>
+          <t>2015-06-10T23:38:50Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3179,11 +3239,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>359328</v>
+        <v>238426</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3192,7 +3252,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>31.187.0.152</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3202,17 +3262,17 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Resonance</t>
+          <t>Talking Body</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Tove Lo</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Odyssey</t>
+          <t>Queen Of The Clouds</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -3220,7 +3280,7 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>fwdbtn</t>
+          <t>trackdone</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -3229,14 +3289,16 @@
         </is>
       </c>
       <c r="S32" t="b">
-        <v>1</v>
-      </c>
-      <c r="T32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="T32" t="b">
+        <v>0</v>
+      </c>
       <c r="U32" t="b">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1525445503469</v>
+        <v>0</v>
       </c>
       <c r="W32" t="b">
         <v>0</v>
@@ -3244,19 +3306,19 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>480</v>
+        <v>303</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>spotify:track:7yotKA30dwTKNEGomV9ZsI</t>
+          <t>spotify:track:6YKB7Sg5kkGMPbxlbSvYVi</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2018-05-14T17:49:37Z</t>
+          <t>2015-06-02T23:29:27Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3266,11 +3328,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>191436</v>
+        <v>191560</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3279,7 +3341,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>37.228.209.8</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3289,17 +3351,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>KOD</t>
+          <t>Golddust</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>J. Cole</t>
+          <t>DJ Fresh</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>KOD</t>
+          <t>Kryptonite</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
@@ -3307,7 +3369,7 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>clickrow</t>
+          <t>trackdone</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3316,14 +3378,16 @@
         </is>
       </c>
       <c r="S33" t="b">
-        <v>1</v>
-      </c>
-      <c r="T33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="T33" t="b">
+        <v>0</v>
+      </c>
       <c r="U33" t="b">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>1526319965411</v>
+        <v>0</v>
       </c>
       <c r="W33" t="b">
         <v>0</v>
@@ -3331,19 +3395,19 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>485</v>
+        <v>310</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>spotify:track:418fYKL9zrcfvpI6WnIARi</t>
+          <t>spotify:track:39QlSLkqq5shnpAXchT9sI</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2018-05-08T17:18:19Z</t>
+          <t>2015-06-06T22:48:24Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3353,11 +3417,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Windows 8 (6.2.9200; x64)</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>192046</v>
+        <v>138843</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -3366,7 +3430,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>37.228.209.8</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -3376,17 +3440,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Silk</t>
+          <t>Are You With Me</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Giselle</t>
+          <t>Lost Frequencies</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Silk</t>
+          <t>Are You With Me</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -3403,14 +3467,16 @@
         </is>
       </c>
       <c r="S34" t="b">
-        <v>1</v>
-      </c>
-      <c r="T34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="T34" t="b">
+        <v>0</v>
+      </c>
       <c r="U34" t="b">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>1525799706751</v>
+        <v>0</v>
       </c>
       <c r="W34" t="b">
         <v>0</v>
@@ -3418,19 +3484,19 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>490</v>
+        <v>316</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>spotify:track:4xKaAIRMff688GtmmDrvhh</t>
+          <t>spotify:track:6BAnxKyld909yo6Pk1DO3r</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2018-05-04T10:38:57Z</t>
+          <t>2015-06-05T15:31:33Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3440,11 +3506,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Android OS 4.4.4 API 19 (OnePlus, A0001)</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>122420</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3453,7 +3519,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>31.187.0.162</t>
+          <t>178.167.254.148</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3463,17 +3529,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Swim High</t>
+          <t>Hello</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>RIVKA</t>
+          <t>OMFG</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Faded</t>
+          <t>Hello</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
@@ -3481,23 +3547,25 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>fwdbtn</t>
+          <t>appload</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>fwdbtn</t>
+          <t>trackdone</t>
         </is>
       </c>
       <c r="S35" t="b">
-        <v>0</v>
-      </c>
-      <c r="T35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="T35" t="b">
+        <v>0</v>
+      </c>
       <c r="U35" t="b">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1525430335063</v>
+        <v>0</v>
       </c>
       <c r="W35" t="b">
         <v>0</v>
@@ -3505,19 +3573,19 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>495</v>
+        <v>322</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>spotify:track:5JCi3pyggvk4B0yd0BK3ow</t>
+          <t>spotify:track:1QXzQKmQiDOzGHwSXVdHTp</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2018-05-02T11:59:58Z</t>
+          <t>2015-06-04T14:03:59Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3527,11 +3595,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Android OS 4.4.4 API 19 (OnePlus, A0001)</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>258386</v>
+        <v>182666</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -3540,7 +3608,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>31.187.0.204</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3550,17 +3618,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Stay High - Habits Remix</t>
+          <t>Tessellate</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Tove Lo</t>
+          <t>alt-J</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Queen Of The Clouds</t>
+          <t>An Awesome Wave</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
@@ -3577,14 +3645,16 @@
         </is>
       </c>
       <c r="S36" t="b">
-        <v>1</v>
-      </c>
-      <c r="T36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="T36" t="b">
+        <v>0</v>
+      </c>
       <c r="U36" t="b">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>1525262141083</v>
+        <v>0</v>
       </c>
       <c r="W36" t="b">
         <v>0</v>
@@ -3592,19 +3662,19 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>500</v>
+        <v>328</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>spotify:track:2vY6l6BYScc5BfFDstUeWY</t>
+          <t>spotify:track:2DCp2wBoQCFavSdK7iOeDp</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2018-05-14T13:19:03Z</t>
+          <t>2015-06-04T14:28:01Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3614,11 +3684,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Android OS 8.0.0 API 26 (OnePlus, ONEPLUS A3003)</t>
+          <t>Android OS 4.4.4 API 19 (OnePlus, A0001)</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>29148</v>
+        <v>173630</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3627,7 +3697,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>31.187.2.159</t>
+          <t>31.187.15.107</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3637,17 +3707,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Stand Up</t>
+          <t>Left Hand Free</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Flobots</t>
+          <t>alt-J</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Fight With Tools</t>
+          <t>Left Hand Free</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
@@ -3655,25 +3725,2964 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S37" t="b">
+        <v>0</v>
+      </c>
+      <c r="T37" t="b">
+        <v>0</v>
+      </c>
+      <c r="U37" t="b">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>spotify:track:1nO67wic65N413c11zKxM7</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>6</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2015-06-03T16:38:29Z</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Windows 8 (6.2.9200; x64)</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>211880</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Silhouettes - Original Radio Edit</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Avicii</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Silhouettes</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S38" t="b">
+        <v>0</v>
+      </c>
+      <c r="T38" t="b">
+        <v>0</v>
+      </c>
+      <c r="U38" t="b">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>spotify:track:5OPlYmWLWxNpQmteTvp4G8</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>6</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2015-06-02T22:01:53Z</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Windows 8 (6.2.9200; x64)</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>187480</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Django Django</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S39" t="b">
+        <v>0</v>
+      </c>
+      <c r="T39" t="b">
+        <v>0</v>
+      </c>
+      <c r="U39" t="b">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>spotify:track:3X38ErFiKgzUxinBlhwuWm</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>6</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2015-06-13T22:31:16Z</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Windows 8 (6.2.9200; x64)</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>215612</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Can't Feel My Face</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>The Weeknd</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Can’t Feel My Face</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S40" t="b">
+        <v>0</v>
+      </c>
+      <c r="T40" t="b">
+        <v>0</v>
+      </c>
+      <c r="U40" t="b">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>spotify:track:5Sf3GyLEAzJXxZ5mbCPXTu</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>6</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2015-06-02T23:47:07Z</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Windows 8 (6.2.9200; x64)</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>208133</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Waves - Robin Schulz Radio Edit</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Mr. Probz</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Waves</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S41" t="b">
+        <v>0</v>
+      </c>
+      <c r="T41" t="b">
+        <v>0</v>
+      </c>
+      <c r="U41" t="b">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>spotify:track:4fTHdMTq0Znl3djLI1Typn</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2015-06-10T23:23:04Z</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Windows 8 (6.2.9200; x64)</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>180021</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Cheerleader (Felix Jaehn Remix) - Radio Edit</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>OMI</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Cheerleader</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S42" t="b">
+        <v>0</v>
+      </c>
+      <c r="T42" t="b">
+        <v>0</v>
+      </c>
+      <c r="U42" t="b">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>spotify:track:285HeuLxsngjFn4GGegGNm</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2015-06-10T23:29:37Z</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Windows 8 (6.2.9200; x64)</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>192560</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Hey Mama (feat. Nicki Minaj, Bebe Rexha &amp; Afrojack)</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>David Guetta</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Listen</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S43" t="b">
+        <v>0</v>
+      </c>
+      <c r="T43" t="b">
+        <v>0</v>
+      </c>
+      <c r="U43" t="b">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>spotify:track:5wN0Qf0iHLcWbCugUtQLNp</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2015-07-17T15:55:44Z</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Windows 8 (6.2.9200; x64)</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>22527</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>31.187.13.142</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Gosh</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Jamie xx</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>In Colour</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>backbtn</t>
+        </is>
+      </c>
+      <c r="S44" t="b">
+        <v>0</v>
+      </c>
+      <c r="T44" t="b">
+        <v>1</v>
+      </c>
+      <c r="U44" t="b">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>spotify:track:6tC2iHfUlzB2W4ntXXL2BH</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2015-06-13T13:51:34Z</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Android OS 5.0.2 API 21 (OnePlus, A0001)</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1531</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>178.167.254.25</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Propane Nightmares</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Pendulum</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>In Silico</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>appload</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>endplay</t>
+        </is>
+      </c>
+      <c r="S45" t="b">
+        <v>1</v>
+      </c>
+      <c r="T45" t="b">
+        <v>1</v>
+      </c>
+      <c r="U45" t="b">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>spotify:track:0wdGgakDuPQPpV5uCNXOvh</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2015-06-04T14:36:01Z</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Android OS 4.4.4 API 19 (OnePlus, A0001)</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>249426</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Bloodflood</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>alt-J</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>An Awesome Wave</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S46" t="b">
+        <v>0</v>
+      </c>
+      <c r="T46" t="b">
+        <v>0</v>
+      </c>
+      <c r="U46" t="b">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>spotify:track:1sNSG13fsK6KPKKNIQXXrh</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2015-06-10T23:20:04Z</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Windows 8 (6.2.9200; x64)</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>247266</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>You Know You Like It</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>DJ Snake</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>You Know You Like It</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S47" t="b">
+        <v>0</v>
+      </c>
+      <c r="T47" t="b">
+        <v>0</v>
+      </c>
+      <c r="U47" t="b">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>spotify:track:5j9iuo3tMmQIfnEEQOOjxh</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2015-06-02T23:26:14Z</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Windows 8 (6.2.9200; x64)</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>194240</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Best Day Of My Life</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>American Authors</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Oh, What A Life</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S48" t="b">
+        <v>0</v>
+      </c>
+      <c r="T48" t="b">
+        <v>0</v>
+      </c>
+      <c r="U48" t="b">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>spotify:track:4WGyY671Z37inSpCTBJoIm</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>4</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2015-06-10T23:34:51Z</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Windows 8 (6.2.9200; x64)</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>252226</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Earned It (Fifty Shades Of Grey) - From The "Fifty Shades Of Grey" Soundtrack</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>The Weeknd</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Earned It (Fifty Shades Of Grey)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S49" t="b">
+        <v>0</v>
+      </c>
+      <c r="T49" t="b">
+        <v>0</v>
+      </c>
+      <c r="U49" t="b">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>spotify:track:6wPMapHawG4uns1R3vHzUG</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>4</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2015-06-05T13:11:54Z</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Android OS 4.4.4 API 19 (OnePlus, A0001)</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1531</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Walking with Elephants</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Ten Walls</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Walking With Elephants</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>appload</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>endplay</t>
+        </is>
+      </c>
+      <c r="S50" t="b">
+        <v>1</v>
+      </c>
+      <c r="T50" t="b">
+        <v>1</v>
+      </c>
+      <c r="U50" t="b">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>spotify:track:7AeYomUuCNb965CWyfLTjK</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>4</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2015-06-05T13:19:25Z</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Android OS 4.4.4 API 19 (OnePlus, A0001)</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>222080</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Somewhere to Run</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Krewella</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Somewhere to Run</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
           <t>fwdbtn</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S51" t="b">
+        <v>1</v>
+      </c>
+      <c r="T51" t="b">
+        <v>0</v>
+      </c>
+      <c r="U51" t="b">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>spotify:track:2LLFl56eIFGFlnrplUC26f</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2015-06-13T22:48:50Z</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Windows 8 (6.2.9200; x64)</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>176674</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Flex (Ooh, Ooh, Ooh)</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Rich Homie Quan</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Summer Sampler</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S52" t="b">
+        <v>0</v>
+      </c>
+      <c r="T52" t="b">
+        <v>0</v>
+      </c>
+      <c r="U52" t="b">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>spotify:track:3cSKi8efODDaZb5XcigtZG</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2015-06-20T22:48:22Z</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Windows 8 (6.2.9200; x64)</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>291162</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>178.167.254.94</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Get Free (feat. Amber Coffman)</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Major Lazer</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Free The Universe</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>clickrow</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S53" t="b">
+        <v>0</v>
+      </c>
+      <c r="T53" t="b">
+        <v>0</v>
+      </c>
+      <c r="U53" t="b">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>spotify:track:0PT7nlpo11hYYyfnBgtilT</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>4</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2015-06-10T23:15:56Z</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Windows 8 (6.2.9200; x64)</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>142212</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Nasty Freestyle</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>T-Wayne</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Nasty Freestyle</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S54" t="b">
+        <v>0</v>
+      </c>
+      <c r="T54" t="b">
+        <v>0</v>
+      </c>
+      <c r="U54" t="b">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>spotify:track:6I9c0ErN0xYmdnzLnz988E</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2015-06-04T16:00:21Z</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Android OS 4.4.4 API 19 (OnePlus, A0001)</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>218880</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Honey (feat. Sleep Party People)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Tomas Barfod</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Love Me</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>fwdbtn</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S55" t="b">
+        <v>0</v>
+      </c>
+      <c r="T55" t="b">
+        <v>0</v>
+      </c>
+      <c r="U55" t="b">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>spotify:track:3UgSQu6WwrXfKKDq019IHE</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>4</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2015-06-13T19:48:59Z</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Windows 8 (6.2.9200; x64)</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>115914</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>To Ü (feat. AlunaGeorge)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Jack Ü</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Skrillex and Diplo present Jack Ü</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>clickrow</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="S56" t="b">
+        <v>0</v>
+      </c>
+      <c r="T56" t="b">
+        <v>1</v>
+      </c>
+      <c r="U56" t="b">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>spotify:track:7oGZAicScQt96OAW4AruYy</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2015-06-13T22:17:12Z</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Windows 8 (6.2.9200; x64)</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>207719</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Want to Want Me</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Jason Derulo</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Everything Is 4</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S57" t="b">
+        <v>0</v>
+      </c>
+      <c r="T57" t="b">
+        <v>0</v>
+      </c>
+      <c r="U57" t="b">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>spotify:track:48HelMaBXoGa2UxE6nDlqX</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2015-06-09T18:49:34Z</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Android OS 5.0.2 API 21 (OnePlus, A0001)</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>521013</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>178.167.254.60</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Heavyweight</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Infected Mushroom</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Vicious Delicious</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S58" t="b">
+        <v>1</v>
+      </c>
+      <c r="T58" t="b">
+        <v>0</v>
+      </c>
+      <c r="U58" t="b">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>spotify:track:5JCi3pyggvk4B0yd0BK3ow</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2015-06-04T22:16:16Z</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Windows 8 (6.2.9200; x64)</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>9752</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Stay High - Habits Remix</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Tove Lo</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Queen Of The Clouds</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>clickrow</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>clickrow</t>
+        </is>
+      </c>
+      <c r="S59" t="b">
+        <v>0</v>
+      </c>
+      <c r="T59" t="b">
+        <v>1</v>
+      </c>
+      <c r="U59" t="b">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>spotify:track:3XFT5B1PNtESBE5ZbBvIZW</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2015-06-02T00:13:47Z</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Android OS 4.4.4 API 19 (samsung, GT-I9300)</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>1532</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Anne Braden</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Flobots</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Fight With Tools</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>appload</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
         <is>
           <t>endplay</t>
         </is>
       </c>
-      <c r="S37" t="b">
+      <c r="S60" t="b">
         <v>1</v>
       </c>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="b">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1526303911858</v>
-      </c>
-      <c r="W37" t="b">
+      <c r="T60" t="b">
+        <v>1</v>
+      </c>
+      <c r="U60" t="b">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>spotify:track:50Dfp4PZQqvXLlniASKpTY</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>4</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2015-07-17T16:21:02Z</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Windows 8 (6.2.9200; x64)</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>231039</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>31.187.13.142</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Obvs</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Jamie xx</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>In Colour</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>clickrow</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S61" t="b">
+        <v>0</v>
+      </c>
+      <c r="T61" t="b">
+        <v>0</v>
+      </c>
+      <c r="U61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>spotify:track:62tS40xGuexyn82lK8KFea</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>4</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2015-06-02T21:54:25Z</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Windows 8 (6.2.9200; x64)</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>234001</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Night Rider (feat. Phoebe Ray)</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Draper</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Monstercat 012 - Aftermath</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>clickrow</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S62" t="b">
+        <v>0</v>
+      </c>
+      <c r="T62" t="b">
+        <v>0</v>
+      </c>
+      <c r="U62" t="b">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>spotify:track:4KtrE35pTuqwNc22QP58RT</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>4</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2015-06-03T16:51:06Z</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Windows 8 (6.2.9200; x64)</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>206100</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Drop the Game</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Flume</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Lockjaw</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>clickrow</t>
+        </is>
+      </c>
+      <c r="S63" t="b">
+        <v>0</v>
+      </c>
+      <c r="T63" t="b">
+        <v>1</v>
+      </c>
+      <c r="U63" t="b">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>spotify:track:4vug3wR43u0AhRH9D8Lp8t</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>4</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2015-06-04T14:40:39Z</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Android OS 4.4.4 API 19 (OnePlus, A0001)</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>278028</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Intro</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>alt-J</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>This Is All Yours</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S64" t="b">
+        <v>0</v>
+      </c>
+      <c r="T64" t="b">
+        <v>0</v>
+      </c>
+      <c r="U64" t="b">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>spotify:track:3JIqogHHQIQW1uJ5Yivb88</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>4</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2015-06-03T16:34:57Z</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Windows 8 (6.2.9200; x64)</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>346164</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Otherside (feat. Fences) [Ryan Lewis Remix]</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Macklemore &amp; Ryan Lewis</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>VS. Redux</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S65" t="b">
+        <v>0</v>
+      </c>
+      <c r="T65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U65" t="b">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>spotify:track:0iyglTS5t81u4SFDZOGIQx</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>4</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2015-06-02T23:34:18Z</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Windows 8 (6.2.9200; x64)</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>234243</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Skyrim - "Dragonborn Theme”</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Video Games Live</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Level 3</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S66" t="b">
+        <v>0</v>
+      </c>
+      <c r="T66" t="b">
+        <v>0</v>
+      </c>
+      <c r="U66" t="b">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>spotify:track:14WB9RMGcLvEKWNgPP22fV</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>4</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2015-06-03T13:18:39Z</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Android OS 4.4.4 API 19 (samsung, GT-I9300)</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>343032</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Headlights</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Eminem</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>The Marshall Mathers LP2</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S67" t="b">
+        <v>1</v>
+      </c>
+      <c r="T67" t="b">
+        <v>0</v>
+      </c>
+      <c r="U67" t="b">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>spotify:track:3m6KkYKdnbffMpGd9Pm9FP</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>4</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2015-06-03T20:04:00Z</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Windows 8 (6.2.9200; x64)</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>18529</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Seven Nation Army</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>The White Stripes</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Elephant</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>clickrow</t>
+        </is>
+      </c>
+      <c r="S68" t="b">
+        <v>0</v>
+      </c>
+      <c r="T68" t="b">
+        <v>1</v>
+      </c>
+      <c r="U68" t="b">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>spotify:track:4LWuTTxIXdV3uXCCm2rNyW</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>4</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2015-06-04T15:28:36Z</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Android OS 4.4.4 API 19 (OnePlus, A0001)</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>26606</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>31.187.15.107</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Interlude II</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>alt-J</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>An Awesome Wave</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>fwdbtn</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>endplay</t>
+        </is>
+      </c>
+      <c r="S69" t="b">
+        <v>0</v>
+      </c>
+      <c r="T69" t="b">
+        <v>1</v>
+      </c>
+      <c r="U69" t="b">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>spotify:track:5tN0vXXrFm5AI408npOCa2</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>4</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2015-07-24T10:48:48Z</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>11120906237</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Windows 8 (6.2.9200; x64)</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>244426</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>88.10.241.230</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Flight in G Minor (feat. Dirty Cello)</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Amp Live</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Headphone Concerto</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>trackdone</t>
+        </is>
+      </c>
+      <c r="S70" t="b">
+        <v>0</v>
+      </c>
+      <c r="T70" t="b">
+        <v>0</v>
+      </c>
+      <c r="U70" t="b">
+        <v>0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="b">
         <v>0</v>
       </c>
     </row>
